--- a/documents/画面設計.xlsx
+++ b/documents/画面設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\git\Python-OnyxOfBlack\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E38410D7-F22C-41CB-A639-9225D06EC8F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F00D3FD-4FF3-4F0B-B13C-02CD54AE1655}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="1" xr2:uid="{00410E5B-B94B-4879-BBE5-7CBE0899D00C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
   <si>
     <t>(0,0)</t>
     <phoneticPr fontId="1"/>
@@ -192,6 +192,17 @@
   <si>
     <t>(248,135)</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(128,8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(192,16)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(152,56)</t>
   </si>
 </sst>
 </file>
@@ -622,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,80 +772,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3331,6 +3277,826 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A56E501-577D-4B99-9937-041D6B4A123D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="952500"/>
+          <a:ext cx="2571750" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B418A8F0-AC30-4FB4-9A2E-610B30548F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="952500"/>
+          <a:ext cx="2571750" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C2BF8A-A717-418D-ACEB-B79BF7E017D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="2019300"/>
+          <a:ext cx="2571750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B236B9C-A0EE-4973-93DC-EC17DC98E92C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="2276475"/>
+          <a:ext cx="2571750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD17FDC-EFC4-4658-BBE6-9D23CC18BF1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="1190625"/>
+          <a:ext cx="2571750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A976C9D-99F4-46B0-94AD-1C498439D927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="2952750"/>
+          <a:ext cx="2571750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15213A30-5FB1-49D6-94FC-DF5EDCE108CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="1666875"/>
+          <a:ext cx="2571750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F095040D-4234-4435-920E-6E8EBF95DDF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="2514600"/>
+          <a:ext cx="2571750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57B50EA-BAF6-46BF-9447-F811776EE72B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="4391025"/>
+          <a:ext cx="1028700" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAC5A37-5D41-4E69-AD35-69AC9738A016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810374" y="2019299"/>
+          <a:ext cx="361951" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29139CCB-F449-431B-9577-0B7B24B289AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048499" y="1809750"/>
+          <a:ext cx="809625" cy="695326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0D00DD-6D0F-4F7A-986D-A50335418FA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="1800225"/>
+          <a:ext cx="742949" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F287FD-F508-4616-9615-004FFB398CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="2028825"/>
+          <a:ext cx="238126" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FADD75D-C357-4C96-847C-46181EF0D353}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="1314450"/>
+          <a:ext cx="380999" cy="1638299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB49FE1F-2045-4732-828D-70C1848DCD2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="1314450"/>
+          <a:ext cx="380999" cy="1638299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3339,7 +4105,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="040404"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3633,8 +4399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D512DBD6-7214-4FAE-92E8-68D3BEA8669B}">
   <dimension ref="H4:T193"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A81" sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5923,7 +6689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE825CB0-0BC1-4C54-A880-41C457079E50}">
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6058,7 +6826,9 @@
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="R3" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="S3" s="30"/>
       <c r="T3" s="30"/>
       <c r="U3" s="30"/>
@@ -6100,7 +6870,7 @@
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
+      <c r="S4" s="29"/>
       <c r="T4" s="40"/>
       <c r="U4" s="40" t="s">
         <v>31</v>
@@ -6109,7 +6879,9 @@
       <c r="W4" s="30"/>
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
+      <c r="Z4" s="30" t="s">
+        <v>41</v>
+      </c>
       <c r="AA4" s="30"/>
       <c r="AB4" s="30"/>
       <c r="AC4" s="30"/>
@@ -6147,7 +6919,7 @@
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
+      <c r="S5" s="33"/>
       <c r="T5" s="35"/>
       <c r="U5" s="36"/>
       <c r="V5" s="29"/>
@@ -6164,8 +6936,8 @@
       <c r="AG5" s="36"/>
       <c r="AH5" s="36"/>
       <c r="AQ5">
-        <f>28*8+8</f>
-        <v>232</v>
+        <f>232-152</f>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.4">
@@ -6188,7 +6960,7 @@
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
       <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
+      <c r="S6" s="33"/>
       <c r="T6" s="35"/>
       <c r="U6" s="35"/>
       <c r="V6" s="33"/>
@@ -6231,7 +7003,7 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
+      <c r="S7" s="33"/>
       <c r="T7" s="35"/>
       <c r="U7" s="35"/>
       <c r="V7" s="33"/>
@@ -6248,8 +7020,8 @@
       <c r="AG7" s="36"/>
       <c r="AH7" s="36"/>
       <c r="AQ7">
-        <f>17*8+7</f>
-        <v>143</v>
+        <f>152+64+4</f>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.4">
@@ -6272,16 +7044,16 @@
       <c r="P8" s="35"/>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
+      <c r="S8" s="33"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
       <c r="V8" s="33"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
       <c r="AC8" s="35"/>
       <c r="AD8" s="35"/>
       <c r="AE8" s="36"/>
@@ -6315,16 +7087,16 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
+      <c r="S9" s="33"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
       <c r="V9" s="33"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
       <c r="AC9" s="35"/>
       <c r="AD9" s="35"/>
       <c r="AE9" s="36"/>
@@ -6356,16 +7128,18 @@
       <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="35" t="s">
+        <v>42</v>
+      </c>
       <c r="U10" s="35"/>
       <c r="V10" s="33"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
       <c r="AC10" s="35"/>
       <c r="AD10" s="35"/>
       <c r="AE10" s="36"/>
@@ -6399,16 +7173,16 @@
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
+      <c r="S11" s="33"/>
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
       <c r="V11" s="33"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
       <c r="AC11" s="35"/>
       <c r="AD11" s="35"/>
       <c r="AE11" s="36"/>
@@ -6440,7 +7214,7 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
+      <c r="S12" s="33"/>
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
       <c r="V12" s="33"/>
@@ -6479,7 +7253,7 @@
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
+      <c r="S13" s="33"/>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
       <c r="V13" s="33"/>
@@ -6520,7 +7294,7 @@
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
+      <c r="S14" s="33"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
       <c r="V14" s="34"/>
@@ -6537,8 +7311,8 @@
       <c r="AG14" s="36"/>
       <c r="AH14" s="36"/>
       <c r="AQ14">
-        <f>8*11+7</f>
-        <v>95</v>
+        <f>95-12</f>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.4">
@@ -6565,7 +7339,7 @@
       <c r="R15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="S15" s="35"/>
+      <c r="S15" s="34"/>
       <c r="T15" s="35"/>
       <c r="U15" s="43" t="s">
         <v>32</v>
@@ -6783,8 +7557,8 @@
         <v>39</v>
       </c>
       <c r="AQ20">
-        <f>143-8</f>
-        <v>135</v>
+        <f>135-8</f>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.4">
@@ -6992,6 +7766,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/documents/画面設計.xlsx
+++ b/documents/画面設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\git\Python-OnyxOfBlack\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F00D3FD-4FF3-4F0B-B13C-02CD54AE1655}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52E2EC0-83F1-4DA7-BD43-215E3BC3CC71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="1" xr2:uid="{00410E5B-B94B-4879-BBE5-7CBE0899D00C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
   <si>
     <t>(0,0)</t>
     <phoneticPr fontId="1"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GATE がある。ここからそとにはいけません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(248,8)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,23 +170,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(8,135)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(128,135)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(128,104)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(248,104)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(248,135)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -203,6 +187,26 @@
   </si>
   <si>
     <t>(152,56)</t>
+  </si>
+  <si>
+    <t>(8,142)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(248,142)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(128,142)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[HIT SPACE KEY]</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3679,66 +3683,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57B50EA-BAF6-46BF-9447-F811776EE72B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6153150" y="4391025"/>
-          <a:ext cx="1028700" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -4097,6 +4041,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61063FA7-A227-4B11-8BB4-471B6D61A0C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="3895725"/>
+          <a:ext cx="514350" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6687,16 +6691,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE825CB0-0BC1-4C54-A880-41C457079E50}">
-  <dimension ref="A1:AQ27"/>
+  <dimension ref="A1:AR27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+      <selection activeCell="AR22" sqref="AR22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="3.375" customWidth="1"/>
-    <col min="43" max="43" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="32" customFormat="1" x14ac:dyDescent="0.4">
@@ -6827,7 +6831,7 @@
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S3" s="30"/>
       <c r="T3" s="30"/>
@@ -6844,7 +6848,7 @@
       <c r="AE3" s="30"/>
       <c r="AF3" s="30"/>
       <c r="AG3" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH3" s="31"/>
     </row>
@@ -6855,7 +6859,7 @@
       <c r="C4" s="33"/>
       <c r="D4" s="29"/>
       <c r="E4" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
@@ -6873,14 +6877,14 @@
       <c r="S4" s="29"/>
       <c r="T4" s="40"/>
       <c r="U4" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V4" s="30"/>
       <c r="W4" s="30"/>
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
       <c r="Z4" s="30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="30"/>
       <c r="AB4" s="30"/>
@@ -7130,7 +7134,7 @@
       <c r="R10" s="35"/>
       <c r="S10" s="33"/>
       <c r="T10" s="35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="U10" s="35"/>
       <c r="V10" s="33"/>
@@ -7320,7 +7324,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="35"/>
@@ -7337,12 +7341,12 @@
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S15" s="34"/>
       <c r="T15" s="35"/>
       <c r="U15" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V15" s="30"/>
       <c r="W15" s="30"/>
@@ -7354,12 +7358,12 @@
       <c r="AC15" s="30"/>
       <c r="AD15" s="30"/>
       <c r="AE15" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF15" s="35"/>
       <c r="AG15" s="36"/>
       <c r="AH15" s="45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.4">
@@ -7403,7 +7407,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A17" s="32">
         <v>14</v>
       </c>
@@ -7440,7 +7444,7 @@
       <c r="AG17" s="36"/>
       <c r="AH17" s="36"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A18" s="32">
         <v>15</v>
       </c>
@@ -7477,98 +7481,92 @@
       <c r="AG18" s="36"/>
       <c r="AH18" s="36"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A19" s="32">
         <v>16</v>
       </c>
       <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="38"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="36"/>
       <c r="AH19" s="36"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A20" s="32">
         <v>17</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="45" t="s">
-        <v>39</v>
-      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="36"/>
       <c r="AQ20">
-        <f>135-8</f>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.4">
+        <f>142/8</f>
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A21" s="32">
         <v>18</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="35" t="s">
-        <v>28</v>
-      </c>
+      <c r="C21" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
@@ -7582,7 +7580,9 @@
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
+      <c r="R21" s="43" t="s">
+        <v>41</v>
+      </c>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
@@ -7597,10 +7597,16 @@
       <c r="AD21" s="35"/>
       <c r="AE21" s="35"/>
       <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="36"/>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ21">
+        <f>22*8</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A22" s="32">
         <v>19</v>
       </c>
@@ -7636,15 +7642,23 @@
       <c r="AF22" s="35"/>
       <c r="AG22" s="35"/>
       <c r="AH22" s="36"/>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AQ22">
+        <f>19*8</f>
+        <v>152</v>
+      </c>
+      <c r="AR22">
+        <f>14*8</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A23" s="32">
         <v>20</v>
       </c>
       <c r="C23" s="33"/>
       <c r="AH23" s="36"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A24" s="32">
         <v>21</v>
       </c>
@@ -7681,7 +7695,7 @@
       <c r="AG24" s="35"/>
       <c r="AH24" s="36"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A25" s="32">
         <v>22</v>
       </c>
@@ -7709,16 +7723,28 @@
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
       <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
+      <c r="AA25" s="35" t="s">
+        <v>43</v>
+      </c>
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
       <c r="AD25" s="35"/>
       <c r="AE25" s="35"/>
       <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
+      <c r="AG25" s="35" t="s">
+        <v>42</v>
+      </c>
       <c r="AH25" s="36"/>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AQ25">
+        <f>15*4</f>
+        <v>60</v>
+      </c>
+      <c r="AR25">
+        <f>256-16-60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A26" s="32">
         <v>23</v>
       </c>
@@ -7754,8 +7780,12 @@
       <c r="AF26" s="37"/>
       <c r="AG26" s="37"/>
       <c r="AH26" s="38"/>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AQ26">
+        <f>22*8</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>19</v>
       </c>

--- a/documents/画面設計.xlsx
+++ b/documents/画面設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\git\Python-OnyxOfBlack\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52E2EC0-83F1-4DA7-BD43-215E3BC3CC71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E45B76-40D9-45C1-AC93-DD3A987C2945}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="1" xr2:uid="{00410E5B-B94B-4879-BBE5-7CBE0899D00C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
   <si>
     <t>(0,0)</t>
     <phoneticPr fontId="1"/>
@@ -206,6 +206,30 @@
   </si>
   <si>
     <t>[HIT SPACE KEY]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3584,15 +3608,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3607,7 +3631,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5438775" y="1666875"/>
+          <a:off x="5448300" y="1790700"/>
           <a:ext cx="2571750" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3746,7 +3770,7 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
@@ -3767,8 +3791,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048499" y="1809750"/>
-          <a:ext cx="809625" cy="695326"/>
+          <a:off x="7048499" y="1790700"/>
+          <a:ext cx="809625" cy="714376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3803,16 +3827,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3827,7 +3851,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5543550" y="1800225"/>
+          <a:off x="3143250" y="1743075"/>
           <a:ext cx="742949" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3983,16 +4007,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4007,7 +4031,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5400675" y="1314450"/>
+          <a:off x="2752725" y="1371600"/>
           <a:ext cx="380999" cy="1638299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4099,6 +4123,986 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1556034-B0B6-46DD-9424-6BAE8EE3C4FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="952500"/>
+          <a:ext cx="2571750" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B7B4F5-ED4D-4C9E-8E0F-D8E63B7F3A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="952500"/>
+          <a:ext cx="2571750" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC1DA3D-928F-4A7F-86D3-68D5C5EF0CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="2019300"/>
+          <a:ext cx="2571750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79073D0-796E-4CC1-B600-1A78F1555A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="2276475"/>
+          <a:ext cx="2571750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3EF9CEF-1BE0-416C-AC22-141DF76770EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="7010400"/>
+          <a:ext cx="2571750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6AA290-141C-4810-B2AF-FCF4FF4EEE41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="2952750"/>
+          <a:ext cx="2571750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49E18A7-8609-49BF-878B-4425E6179462}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="7496175"/>
+          <a:ext cx="2571750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C638EE-1F81-4680-970D-BCEDC5F8C0CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="2514600"/>
+          <a:ext cx="2571750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16666DB0-4E92-4C7D-995A-5DA3ADF7CFEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734299" y="7505699"/>
+          <a:ext cx="228601" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A08A9A2-ABF7-4517-AF1E-105A9D9B9A3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="7505700"/>
+          <a:ext cx="238124" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A827170-782A-4BE5-8CAA-6487FD6B161D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="9820275"/>
+          <a:ext cx="238126" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF765794-AEDE-4F33-97B2-E0AF6ADE921B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="6934200"/>
+          <a:ext cx="380999" cy="1638299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3355A2AE-D427-4AF3-A22D-75DEA678BF69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="7162800"/>
+          <a:ext cx="380999" cy="1638299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA34A18C-D77A-4F3C-BE6F-0BE73FCCF9F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="7743825"/>
+          <a:ext cx="238126" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDEE8974-A27B-482B-81DA-C6CB9D0CF777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="10239375"/>
+          <a:ext cx="238126" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51D9376-D497-48DA-A193-DC693C3D37CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="7734300"/>
+          <a:ext cx="238126" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6FC0AF-A397-45CC-A9F7-8098EB2C74E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5391150" y="7429500"/>
+          <a:ext cx="2590800" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2F4C5C-479A-431C-BD3C-1A238574648A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="7429500"/>
+          <a:ext cx="2571750" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6691,10 +7695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE825CB0-0BC1-4C54-A880-41C457079E50}">
-  <dimension ref="A1:AR27"/>
+  <dimension ref="A1:AR43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR22" sqref="AR22"/>
+      <selection activeCell="AQ4" sqref="AQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6897,8 +7901,8 @@
       <c r="AG4" s="31"/>
       <c r="AH4" s="36"/>
       <c r="AQ4">
-        <f>12*8+8</f>
-        <v>104</v>
+        <f>79/2</f>
+        <v>39.5</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.4">
@@ -7793,6 +8797,194 @@
         <v>20</v>
       </c>
     </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="V29" s="29"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="31"/>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="V30" s="33"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="36"/>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="V31" s="33"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="36"/>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="V32" s="33"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="36"/>
+    </row>
+    <row r="33" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="V33" s="33"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="36"/>
+    </row>
+    <row r="34" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="V34" s="33"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="36"/>
+    </row>
+    <row r="35" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="V35" s="33"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="36"/>
+    </row>
+    <row r="36" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="V36" s="33"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="36"/>
+    </row>
+    <row r="37" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="V37" s="33"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="36"/>
+    </row>
+    <row r="38" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="V38" s="34"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="38"/>
+    </row>
+    <row r="39" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+    </row>
+    <row r="40" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="J40" s="32">
+        <v>0</v>
+      </c>
+      <c r="K40" s="32">
+        <v>1</v>
+      </c>
+      <c r="L40" s="32">
+        <v>2</v>
+      </c>
+      <c r="M40" s="32">
+        <v>3</v>
+      </c>
+      <c r="N40" s="32">
+        <v>4</v>
+      </c>
+      <c r="O40" s="32"/>
+    </row>
+    <row r="41" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="J41" s="32"/>
+      <c r="K41" s="32">
+        <v>6</v>
+      </c>
+      <c r="L41" s="32">
+        <v>7</v>
+      </c>
+      <c r="M41" s="32">
+        <v>8</v>
+      </c>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+    </row>
+    <row r="42" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="J42" s="32"/>
+      <c r="K42" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+    </row>
+    <row r="43" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="J43" s="32"/>
+      <c r="K43" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/画面設計.xlsx
+++ b/documents/画面設計.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\git\Python-OnyxOfBlack\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E45B76-40D9-45C1-AC93-DD3A987C2945}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C667F61E-2A54-4436-9B80-1E7ECE9A3753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="1" xr2:uid="{00410E5B-B94B-4879-BBE5-7CBE0899D00C}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
   <si>
     <t>(0,0)</t>
     <phoneticPr fontId="1"/>
@@ -138,10 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(231,16)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(8,8)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -154,82 +152,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(152,16)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(152,95)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(231,95)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(8,104)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(128,104)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(248,104)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(128,8)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(192,16)</t>
+    <t>(8,96)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(152,56)</t>
-  </si>
-  <si>
-    <t>(8,142)</t>
+    <t>(248,134)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(248,142)</t>
+    <t>(128,134)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(128,142)</t>
+    <t>(8,134)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>]</t>
+    <t>(128,96)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[HIT SPACE KEY]</t>
+    <t>(248,96)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H</t>
+    <t>(150,14)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3309,594 +3260,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A56E501-577D-4B99-9937-041D6B4A123D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="952500"/>
-          <a:ext cx="2571750" cy="2381250"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B418A8F0-AC30-4FB4-9A2E-610B30548F6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5400675" y="952500"/>
-          <a:ext cx="2571750" cy="2381250"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C2BF8A-A717-418D-ACEB-B79BF7E017D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="2019300"/>
-          <a:ext cx="2571750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B236B9C-A0EE-4973-93DC-EC17DC98E92C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="2276475"/>
-          <a:ext cx="2571750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD17FDC-EFC4-4658-BBE6-9D23CC18BF1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="1190625"/>
-          <a:ext cx="2571750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A976C9D-99F4-46B0-94AD-1C498439D927}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="2952750"/>
-          <a:ext cx="2571750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15213A30-5FB1-49D6-94FC-DF5EDCE108CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5448300" y="1790700"/>
-          <a:ext cx="2571750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線コネクタ 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F095040D-4234-4435-920E-6E8EBF95DDF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="2514600"/>
-          <a:ext cx="2571750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAC5A37-5D41-4E69-AD35-69AC9738A016}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6810374" y="2019299"/>
-          <a:ext cx="361951" cy="247651"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29139CCB-F449-431B-9577-0B7B24B289AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7048499" y="1790700"/>
-          <a:ext cx="809625" cy="714376"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0D00DD-6D0F-4F7A-986D-A50335418FA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3143250" y="1743075"/>
-          <a:ext cx="742949" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3911,132 +3282,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6305550" y="2028825"/>
-          <a:ext cx="238126" cy="247651"/>
+          <a:off x="5400675" y="857250"/>
+          <a:ext cx="2571750" cy="2343150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FADD75D-C357-4C96-847C-46181EF0D353}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7581900" y="1314450"/>
-          <a:ext cx="380999" cy="1638299"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB49FE1F-2045-4732-828D-70C1848DCD2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2752725" y="1371600"/>
-          <a:ext cx="380999" cy="1638299"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4123,986 +3375,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1556034-B0B6-46DD-9424-6BAE8EE3C4FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="952500"/>
-          <a:ext cx="2571750" cy="2381250"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B7B4F5-ED4D-4C9E-8E0F-D8E63B7F3A6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5400675" y="952500"/>
-          <a:ext cx="2571750" cy="2381250"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC1DA3D-928F-4A7F-86D3-68D5C5EF0CB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="2019300"/>
-          <a:ext cx="2571750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線コネクタ 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79073D0-796E-4CC1-B600-1A78F1555A44}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="2276475"/>
-          <a:ext cx="2571750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線コネクタ 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3EF9CEF-1BE0-416C-AC22-141DF76770EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="7010400"/>
-          <a:ext cx="2571750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線コネクタ 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6AA290-141C-4810-B2AF-FCF4FF4EEE41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="2952750"/>
-          <a:ext cx="2571750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線コネクタ 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49E18A7-8609-49BF-878B-4425E6179462}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5410200" y="7496175"/>
-          <a:ext cx="2571750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C638EE-1F81-4680-970D-BCEDC5F8C0CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="2514600"/>
-          <a:ext cx="2571750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16666DB0-4E92-4C7D-995A-5DA3ADF7CFEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7734299" y="7505699"/>
-          <a:ext cx="228601" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A08A9A2-ABF7-4517-AF1E-105A9D9B9A3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400675" y="7505700"/>
-          <a:ext cx="238124" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A827170-782A-4BE5-8CAA-6487FD6B161D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6248400" y="9820275"/>
-          <a:ext cx="238126" cy="247651"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF765794-AEDE-4F33-97B2-E0AF6ADE921B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9944100" y="6934200"/>
-          <a:ext cx="380999" cy="1638299"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3355A2AE-D427-4AF3-A22D-75DEA678BF69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2324100" y="7162800"/>
-          <a:ext cx="380999" cy="1638299"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA34A18C-D77A-4F3C-BE6F-0BE73FCCF9F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6057900" y="7743825"/>
-          <a:ext cx="238126" cy="247651"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDEE8974-A27B-482B-81DA-C6CB9D0CF777}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6924675" y="10239375"/>
-          <a:ext cx="238126" cy="247651"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="正方形/長方形 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51D9376-D497-48DA-A193-DC693C3D37CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7067550" y="7734300"/>
-          <a:ext cx="238126" cy="247651"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線コネクタ 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6FC0AF-A397-45CC-A9F7-8098EB2C74E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5391150" y="7429500"/>
-          <a:ext cx="2590800" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線コネクタ 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2F4C5C-479A-431C-BD3C-1A238574648A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5410200" y="7429500"/>
-          <a:ext cx="2571750" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7695,19 +5967,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE825CB0-0BC1-4C54-A880-41C457079E50}">
-  <dimension ref="A1:AR43"/>
+  <dimension ref="A1:AP48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ4" sqref="AQ4"/>
+      <selection activeCell="AP21" sqref="AP21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="3.375" customWidth="1"/>
-    <col min="43" max="44" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="32" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:42" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C1" s="32">
         <v>0</v>
       </c>
@@ -7805,7 +6077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -7813,12 +6085,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A3" s="32">
         <v>0</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -7835,7 +6107,7 @@
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="S3" s="30"/>
       <c r="T3" s="30"/>
@@ -7852,18 +6124,18 @@
       <c r="AE3" s="30"/>
       <c r="AF3" s="30"/>
       <c r="AG3" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH3" s="31"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A4" s="32">
         <v>1</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="29"/>
       <c r="E4" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
@@ -7881,31 +6153,23 @@
       <c r="S4" s="29"/>
       <c r="T4" s="40"/>
       <c r="U4" s="40" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="V4" s="30"/>
       <c r="W4" s="30"/>
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
-      <c r="Z4" s="30" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z4" s="30"/>
       <c r="AA4" s="30"/>
       <c r="AB4" s="30"/>
       <c r="AC4" s="30"/>
       <c r="AD4" s="30"/>
-      <c r="AE4" s="40" t="s">
-        <v>26</v>
-      </c>
+      <c r="AE4" s="40"/>
       <c r="AF4" s="30"/>
       <c r="AG4" s="31"/>
       <c r="AH4" s="36"/>
-      <c r="AQ4">
-        <f>79/2</f>
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A5" s="32">
         <v>2</v>
       </c>
@@ -7929,26 +6193,22 @@
       <c r="R5" s="35"/>
       <c r="S5" s="33"/>
       <c r="T5" s="35"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="31"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
       <c r="AF5" s="35"/>
       <c r="AG5" s="36"/>
       <c r="AH5" s="36"/>
-      <c r="AQ5">
-        <f>232-152</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A6" s="32">
         <v>3</v>
       </c>
@@ -7971,7 +6231,7 @@
       <c r="S6" s="33"/>
       <c r="T6" s="35"/>
       <c r="U6" s="35"/>
-      <c r="V6" s="33"/>
+      <c r="V6" s="35"/>
       <c r="W6" s="35"/>
       <c r="X6" s="35"/>
       <c r="Y6" s="35"/>
@@ -7980,16 +6240,12 @@
       <c r="AB6" s="35"/>
       <c r="AC6" s="35"/>
       <c r="AD6" s="35"/>
-      <c r="AE6" s="36"/>
+      <c r="AE6" s="35"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="36"/>
       <c r="AH6" s="36"/>
-      <c r="AQ6">
-        <f>14*8</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A7" s="32">
         <v>4</v>
       </c>
@@ -8014,7 +6270,7 @@
       <c r="S7" s="33"/>
       <c r="T7" s="35"/>
       <c r="U7" s="35"/>
-      <c r="V7" s="33"/>
+      <c r="V7" s="35"/>
       <c r="W7" s="35"/>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
@@ -8023,16 +6279,12 @@
       <c r="AB7" s="35"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="35"/>
-      <c r="AE7" s="36"/>
+      <c r="AE7" s="35"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="36"/>
       <c r="AH7" s="36"/>
-      <c r="AQ7">
-        <f>152+64+4</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A8" s="32">
         <v>5</v>
       </c>
@@ -8055,7 +6307,7 @@
       <c r="S8" s="33"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
-      <c r="V8" s="33"/>
+      <c r="V8" s="35"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
       <c r="Y8" s="46"/>
@@ -8064,16 +6316,12 @@
       <c r="AB8" s="46"/>
       <c r="AC8" s="35"/>
       <c r="AD8" s="35"/>
-      <c r="AE8" s="36"/>
+      <c r="AE8" s="35"/>
       <c r="AF8" s="35"/>
       <c r="AG8" s="36"/>
       <c r="AH8" s="36"/>
-      <c r="AQ8">
-        <f>16*8</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A9" s="32">
         <v>6</v>
       </c>
@@ -8098,7 +6346,7 @@
       <c r="S9" s="33"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
-      <c r="V9" s="33"/>
+      <c r="V9" s="35"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
       <c r="Y9" s="46"/>
@@ -8107,16 +6355,12 @@
       <c r="AB9" s="46"/>
       <c r="AC9" s="35"/>
       <c r="AD9" s="35"/>
-      <c r="AE9" s="36"/>
+      <c r="AE9" s="35"/>
       <c r="AF9" s="35"/>
       <c r="AG9" s="36"/>
       <c r="AH9" s="36"/>
-      <c r="AQ9">
-        <f>256-8</f>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A10" s="32">
         <v>7</v>
       </c>
@@ -8137,11 +6381,9 @@
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
       <c r="S10" s="33"/>
-      <c r="T10" s="35" t="s">
-        <v>38</v>
-      </c>
+      <c r="T10" s="35"/>
       <c r="U10" s="35"/>
-      <c r="V10" s="33"/>
+      <c r="V10" s="35"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
       <c r="Y10" s="46"/>
@@ -8150,16 +6392,12 @@
       <c r="AB10" s="46"/>
       <c r="AC10" s="35"/>
       <c r="AD10" s="35"/>
-      <c r="AE10" s="36"/>
+      <c r="AE10" s="35"/>
       <c r="AF10" s="35"/>
       <c r="AG10" s="36"/>
       <c r="AH10" s="36"/>
-      <c r="AQ10">
-        <f>16*16</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A11" s="32">
         <v>8</v>
       </c>
@@ -8184,7 +6422,7 @@
       <c r="S11" s="33"/>
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
-      <c r="V11" s="33"/>
+      <c r="V11" s="35"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
       <c r="Y11" s="46"/>
@@ -8193,16 +6431,12 @@
       <c r="AB11" s="46"/>
       <c r="AC11" s="35"/>
       <c r="AD11" s="35"/>
-      <c r="AE11" s="36"/>
+      <c r="AE11" s="35"/>
       <c r="AF11" s="35"/>
       <c r="AG11" s="36"/>
       <c r="AH11" s="36"/>
-      <c r="AQ11">
-        <f>256-16</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A12" s="32">
         <v>9</v>
       </c>
@@ -8225,7 +6459,7 @@
       <c r="S12" s="33"/>
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
-      <c r="V12" s="33"/>
+      <c r="V12" s="35"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
@@ -8234,12 +6468,12 @@
       <c r="AB12" s="35"/>
       <c r="AC12" s="35"/>
       <c r="AD12" s="35"/>
-      <c r="AE12" s="36"/>
+      <c r="AE12" s="35"/>
       <c r="AF12" s="35"/>
       <c r="AG12" s="36"/>
       <c r="AH12" s="36"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A13" s="32">
         <v>10</v>
       </c>
@@ -8264,7 +6498,7 @@
       <c r="S13" s="33"/>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
-      <c r="V13" s="33"/>
+      <c r="V13" s="35"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
@@ -8273,20 +6507,18 @@
       <c r="AB13" s="35"/>
       <c r="AC13" s="35"/>
       <c r="AD13" s="35"/>
-      <c r="AE13" s="36"/>
+      <c r="AE13" s="35"/>
       <c r="AF13" s="35"/>
       <c r="AG13" s="36"/>
       <c r="AH13" s="36"/>
-      <c r="AQ13">
-        <f>231-144</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A14" s="32">
         <v>11</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="42" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="33"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -8301,57 +6533,51 @@
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="33"/>
+      <c r="R14" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="34"/>
       <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="38"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="43"/>
       <c r="AF14" s="35"/>
       <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AQ14">
-        <f>95-12</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AH14" s="45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A15" s="32">
         <v>12</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="S15" s="34"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="43" t="s">
-        <v>31</v>
-      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
       <c r="V15" s="30"/>
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
@@ -8361,57 +6587,53 @@
       <c r="AB15" s="30"/>
       <c r="AC15" s="30"/>
       <c r="AD15" s="30"/>
-      <c r="AE15" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="36"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A16" s="32">
         <v>13</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="44"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="36"/>
       <c r="AH16" s="36"/>
-      <c r="AQ16">
-        <f>13*8</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AP16">
+        <f>13*8+4</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A17" s="32">
         <v>14</v>
       </c>
@@ -8447,8 +6669,12 @@
       <c r="AF17" s="35"/>
       <c r="AG17" s="36"/>
       <c r="AH17" s="36"/>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AP17">
+        <f>17*8</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A18" s="32">
         <v>15</v>
       </c>
@@ -8484,92 +6710,104 @@
       <c r="AF18" s="35"/>
       <c r="AG18" s="36"/>
       <c r="AH18" s="36"/>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AP18">
+        <f>56/2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A19" s="32">
         <v>16</v>
       </c>
       <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="36"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="38"/>
       <c r="AH19" s="36"/>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AP19">
+        <f>22*8+4-28</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A20" s="32">
         <v>17</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="36"/>
-      <c r="AQ20">
-        <f>142/8</f>
-        <v>17.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="C20" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP20">
+        <f>14*8</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A21" s="32">
         <v>18</v>
       </c>
-      <c r="C21" s="42" t="s">
-        <v>39</v>
-      </c>
+      <c r="C21" s="33"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -8584,9 +6822,7 @@
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
-      <c r="R21" s="43" t="s">
-        <v>41</v>
-      </c>
+      <c r="R21" s="35"/>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
@@ -8601,16 +6837,14 @@
       <c r="AD21" s="35"/>
       <c r="AE21" s="35"/>
       <c r="AF21" s="35"/>
-      <c r="AG21" s="43"/>
-      <c r="AH21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ21">
-        <f>22*8</f>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="36"/>
+      <c r="AP21">
+        <f>28*8</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A22" s="32">
         <v>19</v>
       </c>
@@ -8646,23 +6880,15 @@
       <c r="AF22" s="35"/>
       <c r="AG22" s="35"/>
       <c r="AH22" s="36"/>
-      <c r="AQ22">
-        <f>19*8</f>
-        <v>152</v>
-      </c>
-      <c r="AR22">
-        <f>14*8</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A23" s="32">
         <v>20</v>
       </c>
       <c r="C23" s="33"/>
       <c r="AH23" s="36"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A24" s="32">
         <v>21</v>
       </c>
@@ -8699,7 +6925,7 @@
       <c r="AG24" s="35"/>
       <c r="AH24" s="36"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A25" s="32">
         <v>22</v>
       </c>
@@ -8727,28 +6953,16 @@
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
       <c r="Z25" s="35"/>
-      <c r="AA25" s="35" t="s">
-        <v>43</v>
-      </c>
+      <c r="AA25" s="35"/>
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
       <c r="AD25" s="35"/>
       <c r="AE25" s="35"/>
       <c r="AF25" s="35"/>
-      <c r="AG25" s="35" t="s">
-        <v>42</v>
-      </c>
+      <c r="AG25" s="35"/>
       <c r="AH25" s="36"/>
-      <c r="AQ25">
-        <f>15*4</f>
-        <v>60</v>
-      </c>
-      <c r="AR25">
-        <f>256-16-60</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A26" s="32">
         <v>23</v>
       </c>
@@ -8784,12 +6998,8 @@
       <c r="AF26" s="37"/>
       <c r="AG26" s="37"/>
       <c r="AH26" s="38"/>
-      <c r="AQ26">
-        <f>22*8</f>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -8797,20 +7007,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="V29" s="29"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="31"/>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="V30" s="33"/>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
@@ -8819,10 +7050,14 @@
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
       <c r="AD30" s="35"/>
-      <c r="AE30" s="36"/>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="V31" s="33"/>
+      <c r="AE30" s="35"/>
+      <c r="AF30" s="35"/>
+      <c r="AG30" s="35"/>
+      <c r="AH30" s="35"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
@@ -8831,10 +7066,14 @@
       <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
       <c r="AD31" s="35"/>
-      <c r="AE31" s="36"/>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="V32" s="33"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
       <c r="Y32" s="46"/>
@@ -8843,10 +7082,14 @@
       <c r="AB32" s="46"/>
       <c r="AC32" s="35"/>
       <c r="AD32" s="35"/>
-      <c r="AE32" s="36"/>
-    </row>
-    <row r="33" spans="10:31" x14ac:dyDescent="0.4">
-      <c r="V33" s="33"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+    </row>
+    <row r="33" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="46"/>
@@ -8855,10 +7098,14 @@
       <c r="AB33" s="46"/>
       <c r="AC33" s="35"/>
       <c r="AD33" s="35"/>
-      <c r="AE33" s="36"/>
-    </row>
-    <row r="34" spans="10:31" x14ac:dyDescent="0.4">
-      <c r="V34" s="33"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+    </row>
+    <row r="34" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
       <c r="Y34" s="46"/>
@@ -8867,10 +7114,14 @@
       <c r="AB34" s="46"/>
       <c r="AC34" s="35"/>
       <c r="AD34" s="35"/>
-      <c r="AE34" s="36"/>
-    </row>
-    <row r="35" spans="10:31" x14ac:dyDescent="0.4">
-      <c r="V35" s="33"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+    </row>
+    <row r="35" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
       <c r="Y35" s="46"/>
@@ -8879,10 +7130,14 @@
       <c r="AB35" s="46"/>
       <c r="AC35" s="35"/>
       <c r="AD35" s="35"/>
-      <c r="AE35" s="36"/>
-    </row>
-    <row r="36" spans="10:31" x14ac:dyDescent="0.4">
-      <c r="V36" s="33"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+    </row>
+    <row r="36" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
       <c r="Y36" s="35"/>
@@ -8891,10 +7146,14 @@
       <c r="AB36" s="35"/>
       <c r="AC36" s="35"/>
       <c r="AD36" s="35"/>
-      <c r="AE36" s="36"/>
-    </row>
-    <row r="37" spans="10:31" x14ac:dyDescent="0.4">
-      <c r="V37" s="33"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+    </row>
+    <row r="37" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
@@ -8903,87 +7162,216 @@
       <c r="AB37" s="35"/>
       <c r="AC37" s="35"/>
       <c r="AD37" s="35"/>
-      <c r="AE37" s="36"/>
-    </row>
-    <row r="38" spans="10:31" x14ac:dyDescent="0.4">
-      <c r="V38" s="34"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="38"/>
-    </row>
-    <row r="39" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+    </row>
+    <row r="38" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+    </row>
+    <row r="39" spans="10:34" x14ac:dyDescent="0.4">
       <c r="J39" s="32"/>
       <c r="K39" s="32"/>
       <c r="L39" s="32"/>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
       <c r="O39" s="32"/>
-    </row>
-    <row r="40" spans="10:31" x14ac:dyDescent="0.4">
-      <c r="J40" s="32">
-        <v>0</v>
-      </c>
-      <c r="K40" s="32">
-        <v>1</v>
-      </c>
-      <c r="L40" s="32">
-        <v>2</v>
-      </c>
-      <c r="M40" s="32">
-        <v>3</v>
-      </c>
-      <c r="N40" s="32">
-        <v>4</v>
-      </c>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+    </row>
+    <row r="40" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
       <c r="O40" s="32"/>
-    </row>
-    <row r="41" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="35"/>
+    </row>
+    <row r="41" spans="10:34" x14ac:dyDescent="0.4">
       <c r="J41" s="32"/>
-      <c r="K41" s="32">
-        <v>6</v>
-      </c>
-      <c r="L41" s="32">
-        <v>7</v>
-      </c>
-      <c r="M41" s="32">
-        <v>8</v>
-      </c>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
       <c r="N41" s="32"/>
       <c r="O41" s="32"/>
-    </row>
-    <row r="42" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
+    </row>
+    <row r="42" spans="10:34" x14ac:dyDescent="0.4">
       <c r="J42" s="32"/>
-      <c r="K42" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="L42" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="M42" s="32" t="s">
-        <v>47</v>
-      </c>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="32"/>
       <c r="O42" s="32"/>
-    </row>
-    <row r="43" spans="10:31" x14ac:dyDescent="0.4">
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+    </row>
+    <row r="43" spans="10:34" x14ac:dyDescent="0.4">
       <c r="J43" s="32"/>
-      <c r="K43" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="M43" s="32" t="s">
-        <v>49</v>
-      </c>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="32"/>
       <c r="O43" s="32"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="35"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="35"/>
+    </row>
+    <row r="44" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
+      <c r="AE44" s="35"/>
+      <c r="AF44" s="35"/>
+      <c r="AG44" s="35"/>
+      <c r="AH44" s="35"/>
+    </row>
+    <row r="45" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="35"/>
+      <c r="AF45" s="35"/>
+      <c r="AG45" s="35"/>
+      <c r="AH45" s="35"/>
+    </row>
+    <row r="46" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+    </row>
+    <row r="47" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="35"/>
+      <c r="AH47" s="35"/>
+    </row>
+    <row r="48" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/画面設計.xlsx
+++ b/documents/画面設計.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\git\Python-OnyxOfBlack\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C667F61E-2A54-4436-9B80-1E7ECE9A3753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3253AF1F-3EC3-44AB-BBA9-D81698E02404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="1" xr2:uid="{00410E5B-B94B-4879-BBE5-7CBE0899D00C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
   <si>
     <t>(0,0)</t>
     <phoneticPr fontId="1"/>
@@ -181,6 +181,36 @@
   </si>
   <si>
     <t>(150,14)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(188 - _monster.blt_w / 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 + (_monster.blt_w / 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(136)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(104 - _monster.blt_w) / (count + 1) + (_monster.blt_w / 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中心</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増分</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウブン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -760,6 +790,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3320,15 +3418,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3343,8 +3441,1208 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324600" y="3895725"/>
-          <a:ext cx="514350" cy="609600"/>
+          <a:off x="6305550" y="6429375"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDE29A3-289E-4C61-AE19-108C73A31B46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657850" y="6905625"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5A596C-6C10-45BC-91A4-7173EDA0FACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="6905625"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C4796B-C334-469C-A0C6-BE05735E956B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="7381875"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD9486D-2B5B-4B33-BE41-35DDEC9295B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="7381875"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F7E58B-05AC-44CB-9109-DBC21C9746D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="7381875"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB54BB9C-BD60-4D30-8B63-18107E85C819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="7858125"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5D11CF-A0E3-4A9C-AD2E-700159049E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="7867650"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834A25E0-B866-4B0C-B165-29E699C8E1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915025" y="7858125"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6521524-3F6B-439F-97F8-73F8412899AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="7858125"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4F6C50-8B18-41C8-B3CF-C2C100B16127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="8334375"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC8D7B1-57DB-4446-B678-50BEBDED56DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="8315325"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E44070A-A72F-4D35-99AF-F5681C4C502A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772150" y="8324850"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{978E34FA-E3E5-44B0-A4C4-FDCF229DC541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="8324850"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39CA4803-83C9-4C62-B675-E3EBDC3564FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="8315325"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C998181-D3F7-4422-8FD9-EADA362A2E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="8810625"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA4D45D-A5A0-4197-8721-5AAEF9C64DAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="8801100"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884E0FE4-C1A8-4ACF-8C47-58D15306F3A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="8810625"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B046F28-4D65-4835-A256-C5616E7011FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="8810625"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF016BE8-FD0E-42B1-A43F-C16E9D2006FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="8791575"/>
+          <a:ext cx="514350" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45BA706-B843-4698-8388-8BCB2CB85DEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="8810625"/>
+          <a:ext cx="514350" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3385,7 +4683,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="040404"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -5967,16 +7265,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE825CB0-0BC1-4C54-A880-41C457079E50}">
-  <dimension ref="A1:AP48"/>
+  <dimension ref="A1:AQ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP21" sqref="AP21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="AQ28" sqref="AQ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="3.375" customWidth="1"/>
-    <col min="42" max="44" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="46" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="32" customFormat="1" x14ac:dyDescent="0.4">
@@ -6633,7 +7931,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A17" s="32">
         <v>14</v>
       </c>
@@ -6674,7 +7972,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A18" s="32">
         <v>15</v>
       </c>
@@ -6715,7 +8013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A19" s="32">
         <v>16</v>
       </c>
@@ -6756,7 +8054,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A20" s="32">
         <v>17</v>
       </c>
@@ -6803,7 +8101,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A21" s="32">
         <v>18</v>
       </c>
@@ -6824,19 +8122,6 @@
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
       <c r="AG21" s="35"/>
       <c r="AH21" s="36"/>
       <c r="AP21">
@@ -6844,7 +8129,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A22" s="32">
         <v>19</v>
       </c>
@@ -6865,30 +8150,19 @@
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
       <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
       <c r="AG22" s="35"/>
       <c r="AH22" s="36"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A23" s="32">
         <v>20</v>
       </c>
       <c r="C23" s="33"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
       <c r="AH23" s="36"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A24" s="32">
         <v>21</v>
       </c>
@@ -6925,7 +8199,7 @@
       <c r="AG24" s="35"/>
       <c r="AH24" s="36"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A25" s="32">
         <v>22</v>
       </c>
@@ -6962,7 +8236,7 @@
       <c r="AG25" s="35"/>
       <c r="AH25" s="36"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A26" s="32">
         <v>23</v>
       </c>
@@ -6999,219 +8273,274 @@
       <c r="AG26" s="37"/>
       <c r="AH26" s="38"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>19</v>
       </c>
+      <c r="S27" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" s="39" t="s">
+        <v>37</v>
+      </c>
       <c r="AI27" s="39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
+      <c r="AP27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="T28" s="29"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="31"/>
       <c r="AG28" s="35"/>
       <c r="AH28" s="35"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
+      <c r="AP28">
+        <f>((104-16) / (1+1))</f>
+        <v>44</v>
+      </c>
+      <c r="AQ28">
+        <f>136+AP28</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="T29" s="34"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="38"/>
       <c r="AG29" s="35"/>
       <c r="AH29" s="35"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
-      <c r="AF30" s="35"/>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="T30" s="29"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="31"/>
       <c r="AG30" s="35"/>
       <c r="AH30" s="35"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
+      <c r="AP30">
+        <f>((104-16) / (2+1))</f>
+        <v>29.333333333333332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="T31" s="34"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="38"/>
       <c r="AG31" s="35"/>
       <c r="AH31" s="35"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="T32" s="29"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="31"/>
       <c r="AG32" s="35"/>
       <c r="AH32" s="35"/>
-    </row>
-    <row r="33" spans="10:34" x14ac:dyDescent="0.4">
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
+      <c r="AP32">
+        <f>((104-16) / (3+1))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="10:42" x14ac:dyDescent="0.4">
+      <c r="T33" s="34"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="38"/>
       <c r="AG33" s="35"/>
       <c r="AH33" s="35"/>
     </row>
-    <row r="34" spans="10:34" x14ac:dyDescent="0.4">
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="46"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
+    <row r="34" spans="10:42" x14ac:dyDescent="0.4">
+      <c r="T34" s="29"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="31"/>
       <c r="AG34" s="35"/>
       <c r="AH34" s="35"/>
-    </row>
-    <row r="35" spans="10:34" x14ac:dyDescent="0.4">
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
+      <c r="AP34">
+        <f>((104-16) / (4+1))</f>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="10:42" x14ac:dyDescent="0.4">
+      <c r="T35" s="34"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="38"/>
       <c r="AG35" s="35"/>
       <c r="AH35" s="35"/>
     </row>
-    <row r="36" spans="10:34" x14ac:dyDescent="0.4">
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
+    <row r="36" spans="10:42" x14ac:dyDescent="0.4">
+      <c r="T36" s="29"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="31"/>
       <c r="AG36" s="35"/>
       <c r="AH36" s="35"/>
-    </row>
-    <row r="37" spans="10:34" x14ac:dyDescent="0.4">
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
+      <c r="AP36">
+        <f>((104-16) / (5+1))</f>
+        <v>14.666666666666666</v>
+      </c>
+    </row>
+    <row r="37" spans="10:42" x14ac:dyDescent="0.4">
+      <c r="T37" s="34"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="38"/>
       <c r="AG37" s="35"/>
       <c r="AH37" s="35"/>
     </row>
-    <row r="38" spans="10:34" x14ac:dyDescent="0.4">
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
+    <row r="38" spans="10:42" x14ac:dyDescent="0.4">
+      <c r="T38" s="29"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="31"/>
       <c r="AG38" s="35"/>
       <c r="AH38" s="35"/>
-    </row>
-    <row r="39" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="AP38">
+        <f>((104-16) / (6+1))</f>
+        <v>12.571428571428571</v>
+      </c>
+    </row>
+    <row r="39" spans="10:42" x14ac:dyDescent="0.4">
       <c r="J39" s="32"/>
       <c r="K39" s="32"/>
       <c r="L39" s="32"/>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
       <c r="O39" s="32"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
+      <c r="AF39" s="38"/>
       <c r="AG39" s="35"/>
       <c r="AH39" s="35"/>
     </row>
-    <row r="40" spans="10:34" x14ac:dyDescent="0.4">
+    <row r="40" spans="10:42" x14ac:dyDescent="0.4">
       <c r="J40" s="32"/>
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
       <c r="M40" s="32"/>
       <c r="N40" s="32"/>
       <c r="O40" s="32"/>
+      <c r="S40" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="U40" s="35"/>
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
@@ -7224,10 +8553,12 @@
       <c r="AD40" s="35"/>
       <c r="AE40" s="35"/>
       <c r="AF40" s="35"/>
-      <c r="AG40" s="35"/>
+      <c r="AG40" s="43" t="s">
+        <v>40</v>
+      </c>
       <c r="AH40" s="35"/>
     </row>
-    <row r="41" spans="10:34" x14ac:dyDescent="0.4">
+    <row r="41" spans="10:42" x14ac:dyDescent="0.4">
       <c r="J41" s="32"/>
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
@@ -7248,8 +8579,12 @@
       <c r="AF41" s="35"/>
       <c r="AG41" s="35"/>
       <c r="AH41" s="35"/>
-    </row>
-    <row r="42" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="AP41">
+        <f>((104-16) / (7+1))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="10:42" x14ac:dyDescent="0.4">
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
@@ -7270,8 +8605,12 @@
       <c r="AF42" s="35"/>
       <c r="AG42" s="35"/>
       <c r="AH42" s="35"/>
-    </row>
-    <row r="43" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="AP42">
+        <f>((104-16) / (8+1))</f>
+        <v>9.7777777777777786</v>
+      </c>
+    </row>
+    <row r="43" spans="10:42" x14ac:dyDescent="0.4">
       <c r="J43" s="32"/>
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
@@ -7292,8 +8631,12 @@
       <c r="AF43" s="35"/>
       <c r="AG43" s="35"/>
       <c r="AH43" s="35"/>
-    </row>
-    <row r="44" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="AP43">
+        <f>((104-16) / (9+1))</f>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="10:42" x14ac:dyDescent="0.4">
       <c r="U44" s="35"/>
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
@@ -7308,8 +8651,12 @@
       <c r="AF44" s="35"/>
       <c r="AG44" s="35"/>
       <c r="AH44" s="35"/>
-    </row>
-    <row r="45" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="AP44">
+        <f>((104-16) / (10+1))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="10:42" x14ac:dyDescent="0.4">
       <c r="U45" s="35"/>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
@@ -7324,8 +8671,12 @@
       <c r="AF45" s="35"/>
       <c r="AG45" s="35"/>
       <c r="AH45" s="35"/>
-    </row>
-    <row r="46" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="AP45">
+        <f>((104-16) / (11+1))</f>
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="10:42" x14ac:dyDescent="0.4">
       <c r="U46" s="35"/>
       <c r="V46" s="35"/>
       <c r="W46" s="35"/>
@@ -7340,8 +8691,12 @@
       <c r="AF46" s="35"/>
       <c r="AG46" s="35"/>
       <c r="AH46" s="35"/>
-    </row>
-    <row r="47" spans="10:34" x14ac:dyDescent="0.4">
+      <c r="AP46">
+        <f>((104-16) / (12+1))</f>
+        <v>6.7692307692307692</v>
+      </c>
+    </row>
+    <row r="47" spans="10:42" x14ac:dyDescent="0.4">
       <c r="U47" s="35"/>
       <c r="V47" s="35"/>
       <c r="W47" s="35"/>
@@ -7357,7 +8712,7 @@
       <c r="AG47" s="35"/>
       <c r="AH47" s="35"/>
     </row>
-    <row r="48" spans="10:34" x14ac:dyDescent="0.4">
+    <row r="48" spans="10:42" x14ac:dyDescent="0.4">
       <c r="U48" s="35"/>
       <c r="V48" s="35"/>
       <c r="W48" s="35"/>
